--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Enforcer.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Enforcer.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DFE5B-24D5-4860-A660-8E8E0F8255B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="22">
   <si>
     <t>B</t>
   </si>
@@ -80,12 +81,15 @@
   <si>
     <t>Dark Blue</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +259,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -275,7 +287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -315,7 +333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -355,7 +379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 6"/>
+        <xdr:cNvPr id="22" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -395,7 +425,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 8"/>
+        <xdr:cNvPr id="24" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -435,7 +471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 12"/>
+        <xdr:cNvPr id="26" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -475,7 +517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 14"/>
+        <xdr:cNvPr id="27" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -504,9 +552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +592,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -578,6 +626,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -612,9 +661,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,19 +837,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BE14" sqref="BE14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="75" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="41" width="2.85546875" customWidth="1"/>
+    <col min="42" max="42" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="75" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -882,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -899,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -983,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -997,13 +1050,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>2</v>
@@ -1084,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1095,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>12</v>
@@ -1107,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
@@ -1185,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1193,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -1211,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>2</v>
@@ -1286,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1300,13 +1353,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>2</v>
@@ -1333,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>2</v>
@@ -1363,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="AU6" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AV6" s="4" t="s">
         <v>2</v>
@@ -1387,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1398,19 +1451,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>2</v>
@@ -1431,13 +1484,13 @@
         <v>2</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>2</v>
@@ -1461,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AU7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AV7" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AW7" s="4" t="s">
         <v>2</v>
@@ -1488,7 +1541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1565,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="AU8" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AV8" s="4" t="s">
         <v>2</v>
@@ -1583,13 +1636,13 @@
         <v>6</v>
       </c>
       <c r="BK8" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BM8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1690,7 +1743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1707,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>2</v>
@@ -1791,7 +1844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1892,7 +1945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1993,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -2076,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2168,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2260,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2307,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>2</v>
@@ -2337,10 +2390,10 @@
         <v>2</v>
       </c>
       <c r="AU19" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AV19" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AW19" s="4" t="s">
         <v>2</v>
@@ -2352,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2396,13 +2449,13 @@
         <v>2</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>2</v>
@@ -2426,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="AT20" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AU20" s="11" t="s">
         <v>12</v>
@@ -2435,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="AW20" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AX20" s="4" t="s">
         <v>2</v>
@@ -2449,7 +2502,7 @@
       <c r="BN20" s="1"/>
       <c r="BO20" s="1"/>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2466,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>2</v>
@@ -2490,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>1</v>
@@ -2502,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>2</v>
@@ -2520,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="AS21" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AT21" s="7" t="s">
         <v>1</v>
@@ -2535,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="AX21" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY21" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2555,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>1</v>
@@ -2564,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>2</v>
@@ -2588,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC22" s="4" t="s">
         <v>2</v>
@@ -2618,10 +2671,10 @@
         <v>2</v>
       </c>
       <c r="AU22" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AV22" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AW22" s="4" t="s">
         <v>2</v>
@@ -2633,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2650,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>2</v>
@@ -2677,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>2</v>
@@ -2707,16 +2760,16 @@
         <v>3</v>
       </c>
       <c r="AT23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AU23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AV23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AW23" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>3</v>
@@ -2725,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2817,7 +2870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2909,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2956,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC26" s="4" t="s">
         <v>2</v>
@@ -2986,10 +3039,10 @@
         <v>2</v>
       </c>
       <c r="AU26" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AV26" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AW26" s="4" t="s">
         <v>2</v>
@@ -3001,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -3101,24 +3154,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Enforcer.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Enforcer.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DFE5B-24D5-4860-A660-8E8E0F8255B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -84,12 +83,30 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>enforcer1</t>
+  </si>
+  <si>
+    <t>enforcer2</t>
+  </si>
+  <si>
+    <t>enforcer3</t>
+  </si>
+  <si>
+    <t>enforcer4</t>
+  </si>
+  <si>
+    <t>enforcer5</t>
+  </si>
+  <si>
+    <t>enforcer6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +307,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -336,7 +353,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -382,7 +399,7 @@
         <xdr:cNvPr id="22" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,7 +445,7 @@
         <xdr:cNvPr id="24" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -474,7 +491,7 @@
         <xdr:cNvPr id="26" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -520,7 +537,7 @@
         <xdr:cNvPr id="27" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,9 +569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -592,7 +609,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -626,7 +643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -661,10 +677,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -837,14 +852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BO29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+      <selection activeCell="B2" sqref="B2:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="41" width="2.85546875" customWidth="1"/>
@@ -852,7 +867,7 @@
     <col min="43" max="75" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -935,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1440,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1541,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2006,6 +2021,9 @@
       <c r="AF12" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="AI12" t="s">
+        <v>23</v>
+      </c>
       <c r="AP12">
         <v>10</v>
       </c>
@@ -2046,7 +2064,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65">
+      <c r="BB13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -2129,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2221,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2313,7 +2341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2405,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2502,7 +2530,7 @@
       <c r="BN20" s="1"/>
       <c r="BO20" s="1"/>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2594,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2686,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67">
       <c r="A23">
         <v>6</v>
       </c>
@@ -2778,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2870,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2962,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67">
       <c r="A26">
         <v>9</v>
       </c>
@@ -3054,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67">
       <c r="A27">
         <v>10</v>
       </c>
@@ -3144,6 +3172,19 @@
       </c>
       <c r="AY27" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67">
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67">
+      <c r="AI29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3154,24 +3195,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
